--- a/[Data] WES_PASS/Patient-A44-indels.xlsx
+++ b/[Data] WES_PASS/Patient-A44-indels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="226">
   <si>
     <t>NG.8132_A44B_lib74139_3786_3</t>
   </si>
@@ -43,394 +43,655 @@
     <t>GBM driver</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>chr1_11918927</t>
   </si>
   <si>
+    <t>MEF2C 3_prime_UTR_variant:CTC-467M3.1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_88018305   </t>
+  </si>
+  <si>
+    <t>chr1_21503168</t>
+  </si>
+  <si>
+    <t>YY1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:YY1 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_100744093   </t>
+  </si>
+  <si>
+    <t>chr1_31954348</t>
+  </si>
+  <si>
+    <t>RP11-114H24.2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_78207569   </t>
+  </si>
+  <si>
+    <t>chr1_35485261</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>chr1_21503168</t>
-  </si>
-  <si>
-    <t>EIF4G3</t>
-  </si>
-  <si>
-    <t>chr1_31954348</t>
-  </si>
-  <si>
-    <t>chr1_35485261</t>
-  </si>
-  <si>
-    <t>ZMYM6:RP11-244H3.4</t>
+    <t xml:space="preserve">chr17_21904444   </t>
   </si>
   <si>
     <t>chr1_49056730</t>
   </si>
   <si>
-    <t>AGBL4</t>
+    <t>IL12RB2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_67792626   </t>
   </si>
   <si>
     <t>chr1_67792626</t>
   </si>
   <si>
-    <t>IL12RB2</t>
+    <t>KCNK17 intron_variant:KCNK17 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_39278877   </t>
   </si>
   <si>
     <t>chr1_94883977</t>
   </si>
   <si>
-    <t>ABCD3</t>
+    <t>KIAA0196 intron_variant&amp;non_coding_transcript_variant:KIAA0196 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_126059686   </t>
   </si>
   <si>
     <t>chr1_225525698</t>
   </si>
   <si>
-    <t>DNAH14</t>
+    <t xml:space="preserve">chr21_9650024   </t>
   </si>
   <si>
     <t>chr2_26794902</t>
   </si>
   <si>
-    <t>C2orf70</t>
+    <t>HPR intron_variant:HPR intron_variant&amp;non_coding_transcript_variant:HPR frameshift_variant:TXNL4B intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_72107692   </t>
   </si>
   <si>
     <t>chr2_69732571</t>
   </si>
   <si>
-    <t>AAK1</t>
+    <t>RP13-726E6.2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_3569010   </t>
   </si>
   <si>
     <t>chr2_145161712</t>
   </si>
   <si>
-    <t>ZEB2</t>
+    <t>LITAF intron_variant:LITAF intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_11645776   </t>
   </si>
   <si>
     <t>chr2_223158424</t>
   </si>
   <si>
-    <t>PAX3</t>
+    <t>FAM182B intron_variant:FAM182B intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_25755988   </t>
   </si>
   <si>
     <t>chr4_140810638</t>
   </si>
   <si>
-    <t>MAML3</t>
+    <t>AKAP8 intron_variant&amp;NMD_transcript_variant:AKAP8 intron_variant&amp;non_coding_transcript_variant:AKAP8 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_15473195   </t>
   </si>
   <si>
     <t>chr5_37815589</t>
   </si>
   <si>
-    <t>GDNF</t>
+    <t>HMCN1 missense_variant:HMCN1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_186135391   </t>
   </si>
   <si>
     <t>chr5_88018305</t>
   </si>
   <si>
-    <t>MEF2C:CTC-467M3.1</t>
+    <t xml:space="preserve">chr1_229771516   </t>
   </si>
   <si>
     <t>chr5_139494773</t>
   </si>
   <si>
+    <t xml:space="preserve">chr2_45233708   </t>
+  </si>
+  <si>
     <t>chr5_157053271</t>
   </si>
   <si>
-    <t>SOX30</t>
+    <t>TTN-AS1 intron_variant&amp;non_coding_transcript_variant:TTN missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_179438951   </t>
   </si>
   <si>
     <t>chr5_179994815</t>
   </si>
   <si>
-    <t>CNOT6</t>
+    <t xml:space="preserve">chr4_189061162   </t>
   </si>
   <si>
     <t>chr6_32725559</t>
   </si>
   <si>
-    <t>HLA-DQB2</t>
+    <t xml:space="preserve">chr7_48314624   </t>
   </si>
   <si>
     <t>chr6_32725567</t>
   </si>
   <si>
+    <t>MTMR9 missense_variant:MTMR9 3_prime_UTR_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_11172436   </t>
+  </si>
+  <si>
     <t>chr6_50796498</t>
   </si>
   <si>
-    <t>TFAP2B</t>
+    <t>SYK missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_93624559   </t>
+  </si>
+  <si>
+    <t>SYK</t>
+  </si>
+  <si>
+    <t>missense_variant</t>
   </si>
   <si>
     <t>chr6_70064065</t>
   </si>
   <si>
-    <t>BAI3</t>
+    <t>PTEN stop_gained:PTEN non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t>chr10_89717672   PTEN SNV stop_gained:non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t>PTEN:PTEN</t>
+  </si>
+  <si>
+    <t>stop_gained:non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
   </si>
   <si>
     <t>chr6_168376925</t>
   </si>
   <si>
+    <t>AMPD3 splice_region_variant&amp;intron_variant:AMPD3 intron_variant&amp;non_coding_transcript_variant:AMPD3 splice_region_variant&amp;intron_variant&amp;NMD_transcript_variant:AMPD3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_10500285   </t>
+  </si>
+  <si>
     <t>chr7_83246043</t>
   </si>
   <si>
-    <t>SEMA3E</t>
+    <t xml:space="preserve">chr19_58551908   </t>
   </si>
   <si>
     <t>chr7_103828643</t>
   </si>
   <si>
-    <t>ORC5</t>
+    <t>TSHZ2 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_51870707   </t>
   </si>
   <si>
     <t>chr8_17924608</t>
   </si>
   <si>
-    <t>ASAH1</t>
+    <t xml:space="preserve">chr1_152128682   </t>
   </si>
   <si>
     <t>chr8_101721429</t>
   </si>
   <si>
-    <t>PABPC1</t>
+    <t>ARHGEF2 intron_variant:ARHGEF2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_155921493   </t>
   </si>
   <si>
     <t>chr8_126059686</t>
   </si>
   <si>
-    <t>KIAA0196</t>
+    <t>PEX19 3_prime_UTR_variant:DCAF8 intron_variant:PEX19 3_prime_UTR_variant&amp;NMD_transcript_variant:PEX19 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_160247206   </t>
   </si>
   <si>
     <t>chr9_2039776</t>
   </si>
   <si>
-    <t>SMARCA2</t>
+    <t>GYPC missense_variant:GYPC non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_127453545   </t>
   </si>
   <si>
     <t>chr9_68455187</t>
   </si>
   <si>
-    <t>RP11-764K9.4</t>
+    <t>STRADB intron_variant:TRAK2 splice_region_variant&amp;intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_202272119   </t>
   </si>
   <si>
     <t>chr9_139370872</t>
   </si>
   <si>
-    <t>SEC16A</t>
+    <t>PCDHGA8 missense_variant:PCDHGA3 intron_variant:PCDHGA1 intron_variant:PCDHGA7 intron_variant:PCDHGB3 intron_variant:PCDHGB1 intron_variant:PCDHGA5 intron_variant:PCDHGA4 intron_variant:PCDHGA2 intron_variant:PCDHGB4 intron_variant:PCDHGA6 intron_variant:PCDHGB2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_140773249   </t>
   </si>
   <si>
     <t>chr10_9449455</t>
   </si>
   <si>
+    <t>ITPR3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_33608072   </t>
+  </si>
+  <si>
     <t>chr10_71647196</t>
   </si>
   <si>
-    <t>COL13A1</t>
+    <t>BAI3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_70064065   </t>
   </si>
   <si>
     <t>chr10_85958658</t>
   </si>
   <si>
-    <t>CDHR1</t>
+    <t>LSMEM1 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_112130180   </t>
   </si>
   <si>
     <t>chr11_1955617</t>
   </si>
   <si>
-    <t>TNNT3</t>
+    <t>MUC5B missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_1271623   </t>
   </si>
   <si>
     <t>chr11_64083318</t>
   </si>
   <si>
-    <t>ESRRA</t>
+    <t>NOVA1 intron_variant:NOVA1 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_27065364   </t>
   </si>
   <si>
     <t>chr11_67254766</t>
   </si>
   <si>
-    <t>AIP</t>
+    <t>PRPF39 intron_variant&amp;NMD_transcript_variant:PRPF39 intron_variant:PRPF39 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr14_45568527   </t>
   </si>
   <si>
     <t>chr11_119149219</t>
   </si>
   <si>
-    <t>CBL</t>
+    <t>CTC-297N7.11 intron_variant&amp;non_coding_transcript_variant:MYH8 stop_gained:RP11-799N11.1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_10297646   </t>
   </si>
   <si>
     <t>chr12_64216544</t>
   </si>
   <si>
+    <t>WFDC5 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_43739544   </t>
+  </si>
+  <si>
     <t>chr12_64216548</t>
   </si>
   <si>
+    <t>CTSZ non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:CTSZ missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_57571842   </t>
+  </si>
+  <si>
     <t>chr12_86229880</t>
   </si>
   <si>
+    <t>PDE10A intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_165876016   </t>
+  </si>
+  <si>
     <t>chr12_102046303</t>
   </si>
   <si>
-    <t>MYBPC1:RP11-755O11.2</t>
+    <t>GRM5 intron_variant:GRM5-AS1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_88245632   </t>
   </si>
   <si>
     <t>chr12_133182783</t>
   </si>
   <si>
-    <t>LRCOL1</t>
+    <t>CLCNKA intron_variant:CLCNKA intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_16360090   </t>
   </si>
   <si>
     <t>chr13_25161551</t>
   </si>
   <si>
-    <t>RP11-556N21.1:TPTE2P6</t>
+    <t>FLT3 intron_variant&amp;NMD_transcript_variant:FLT3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr13_28624471   </t>
+  </si>
+  <si>
+    <t>FLT3:FLT3</t>
+  </si>
+  <si>
+    <t>intron_variant&amp;NMD_transcript_variant:intron_variant</t>
   </si>
   <si>
     <t>chr13_101742411</t>
   </si>
   <si>
+    <t>EIF4G3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_21503168   </t>
+  </si>
+  <si>
     <t>chr14_100744093</t>
   </si>
   <si>
-    <t>YY1</t>
+    <t>ITGA2B intron_variant&amp;non_coding_transcript_variant:ITGA2B intron_variant:ITGA2B non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_42461141   </t>
   </si>
   <si>
     <t>chr14_106229706</t>
   </si>
   <si>
+    <t>PAX3 intron_variant:PAX3 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_223158424   </t>
+  </si>
+  <si>
+    <t>PAX3:PAX3</t>
+  </si>
+  <si>
+    <t>intron_variant:3_prime_UTR_variant</t>
+  </si>
+  <si>
     <t>chr15_42003197</t>
   </si>
   <si>
-    <t>MGA</t>
+    <t>CUEDC1 splice_donor_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_55956970   </t>
   </si>
   <si>
     <t>chr15_42168854</t>
   </si>
   <si>
+    <t>PPP5D1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:PPP5D1 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_47030191   </t>
+  </si>
+  <si>
     <t>chr15_81637357</t>
   </si>
   <si>
-    <t>RP11-761I4.3:TMC3</t>
+    <t xml:space="preserve">chr11_1642916   </t>
   </si>
   <si>
     <t>chr16_11645776</t>
   </si>
   <si>
-    <t>LITAF</t>
+    <t xml:space="preserve">chr14_22070696   </t>
   </si>
   <si>
     <t>chr16_28074523</t>
   </si>
   <si>
-    <t>GSG1L</t>
+    <t xml:space="preserve">chr14_22070700   </t>
   </si>
   <si>
     <t>chr16_72097255</t>
   </si>
   <si>
-    <t>HPR:TXNL4B</t>
+    <t>GCOM1 intron_variant&amp;NMD_transcript_variant:GCOM1 intron_variant:MYZAP intron_variant:POLR2M intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_57967399   </t>
   </si>
   <si>
     <t>chr16_72107692</t>
   </si>
   <si>
+    <t>HPR intron_variant:HPR intron_variant&amp;non_coding_transcript_variant:TXNL4B intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_72097255   </t>
+  </si>
+  <si>
     <t>chr16_88724840</t>
   </si>
   <si>
-    <t>MVD</t>
+    <t>DPP9 intron_variant&amp;non_coding_transcript_variant:DPP9 intron_variant:DPP9 intron_variant&amp;NMD_transcript_variant:AC005594.3 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_4682878   </t>
   </si>
   <si>
     <t>chr17_21904444</t>
   </si>
   <si>
+    <t>ST6GALNAC3 intron_variant&amp;non_coding_transcript_variant:ST6GALNAC3 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_76878973   </t>
+  </si>
+  <si>
     <t>chr17_26577552</t>
   </si>
   <si>
+    <t xml:space="preserve">chr2_10224068   </t>
+  </si>
+  <si>
     <t>chr17_41108009</t>
   </si>
   <si>
-    <t>PTGES3L-AARSD1:AARSD1</t>
+    <t xml:space="preserve">chr11_119149144   </t>
   </si>
   <si>
     <t>chr17_44342695</t>
   </si>
   <si>
+    <t xml:space="preserve">chr11_119149256   </t>
+  </si>
+  <si>
     <t>chr18_21422554</t>
   </si>
   <si>
-    <t>LAMA3</t>
+    <t xml:space="preserve">chr19_15473194   </t>
   </si>
   <si>
     <t>chr19_4682878</t>
   </si>
   <si>
-    <t>DPP9:AC005594.3</t>
+    <t>PTPN1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_49198062   </t>
   </si>
   <si>
     <t>chr19_15473194</t>
   </si>
   <si>
-    <t>AKAP8</t>
+    <t xml:space="preserve">chr1_11918927   </t>
   </si>
   <si>
     <t>chr19_42352413</t>
   </si>
   <si>
-    <t>DMRTC2</t>
+    <t>SERPINI1 synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_167507009   </t>
   </si>
   <si>
     <t>chr19_43772276</t>
   </si>
   <si>
-    <t>PSG9</t>
+    <t>ORC5 intron_variant:ORC5 intron_variant&amp;non_coding_transcript_variant:ORC5 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_103828643   </t>
   </si>
   <si>
     <t>chr20_3324487</t>
   </si>
   <si>
+    <t>PDGFRA intron_variant&amp;non_coding_transcript_variant:PDGFRA intron_variant&amp;NMD_transcript_variant:FIP1L1 intron_variant:PDGFRA intron_variant</t>
+  </si>
+  <si>
+    <t>chr4_55147617   PDGFRA SNV intron_variant&amp;non_coding_transcript_variant:intron_variant&amp;NMD_transcript_variant:intron_variant:intron_variant</t>
+  </si>
+  <si>
+    <t>PDGFRA:PDGFRA:FIP1L1:PDGFRA</t>
+  </si>
+  <si>
+    <t>intron_variant&amp;non_coding_transcript_variant:intron_variant&amp;NMD_transcript_variant:intron_variant:intron_variant</t>
+  </si>
+  <si>
     <t>chr20_25755988</t>
   </si>
   <si>
-    <t>FAM182B</t>
+    <t>RP11-764K9.4 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_68455187   </t>
   </si>
   <si>
     <t>chr20_29647799</t>
   </si>
   <si>
+    <t xml:space="preserve">chr9_68455218   </t>
+  </si>
+  <si>
     <t>chr20_34247059</t>
   </si>
   <si>
-    <t>RBM12:CPNE1:RP1-309K20.6</t>
+    <t>U47924.27 intron_variant&amp;non_coding_transcript_variant:EMG1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_7073148   </t>
   </si>
   <si>
     <t>chr20_43739544</t>
   </si>
   <si>
-    <t>WFDC5</t>
+    <t>PIK3C2G intron_variant&amp;NMD_transcript_variant:PIK3C2G intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_18762630   </t>
   </si>
   <si>
     <t>chr20_50313790</t>
   </si>
   <si>
-    <t>ATP9A</t>
+    <t xml:space="preserve">chr17_26577552   </t>
   </si>
   <si>
     <t>chr20_62245802</t>
   </si>
   <si>
-    <t>GMEB2</t>
+    <t>C2orf70 intron_variant:C2orf70 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_26794902   </t>
   </si>
   <si>
     <t>chr21_20618020</t>
   </si>
   <si>
+    <t xml:space="preserve">chr13_101742411   </t>
+  </si>
+  <si>
     <t>chr22_38421364</t>
   </si>
   <si>
-    <t>POLR2F</t>
+    <t xml:space="preserve">chr12_64216544   </t>
   </si>
   <si>
     <t>chrY_28671978</t>
   </si>
   <si>
+    <t>EMR2 5_prime_UTR_variant:EMR2 synonymous_variant:EMR2 synonymous_variant&amp;NMD_transcript_variant:EMR2 intron_variant:EMR2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_14877857   </t>
+  </si>
+  <si>
     <t>chrY_28689093</t>
+  </si>
+  <si>
+    <t>PSG9 frameshift_variant:PSG9 synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_43772276   </t>
   </si>
 </sst>
 </file>
@@ -762,13 +1023,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -796,10 +1057,16 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -823,12 +1090,15 @@
         <v>0.0285714285714286</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -852,12 +1122,15 @@
         <v>0.166666666666667</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -881,12 +1154,15 @@
         <v>0.16</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -910,12 +1186,15 @@
         <v>0.0196078431372549</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -939,12 +1218,15 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -968,12 +1250,15 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -997,12 +1282,15 @@
         <v>0.176470588235294</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1026,12 +1314,15 @@
         <v>0.117647058823529</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1055,12 +1346,15 @@
         <v>0.0697674418604651</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1084,12 +1378,15 @@
         <v>0.0166666666666667</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1113,12 +1410,15 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1142,12 +1442,15 @@
         <v>0.0588235294117647</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1171,12 +1474,15 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1200,12 +1506,15 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>49</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1229,12 +1538,15 @@
         <v>0.153846153846154</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1258,12 +1570,15 @@
         <v>0.125</v>
       </c>
       <c r="I17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1287,12 +1602,15 @@
         <v>0.166666666666667</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1316,12 +1634,15 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1345,12 +1666,15 @@
         <v>0.0869565217391304</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1374,12 +1698,15 @@
         <v>0.0769230769230769</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1403,12 +1730,21 @@
         <v>0.0408163265306122</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J22" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1432,12 +1768,21 @@
         <v>0.0225988700564972</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J23" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1461,12 +1806,15 @@
         <v>0.166666666666667</v>
       </c>
       <c r="I24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1490,12 +1838,15 @@
         <v>0.1</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1519,12 +1870,15 @@
         <v>0.0169491525423729</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1548,12 +1902,15 @@
         <v>0.0277777777777778</v>
       </c>
       <c r="I27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1577,12 +1934,15 @@
         <v>0.0617283950617284</v>
       </c>
       <c r="I28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1606,12 +1966,15 @@
         <v>0.0588235294117647</v>
       </c>
       <c r="I29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1635,12 +1998,15 @@
         <v>0.0666666666666667</v>
       </c>
       <c r="I30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1664,12 +2030,15 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1693,12 +2062,15 @@
         <v>0.0296296296296296</v>
       </c>
       <c r="I32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1722,12 +2094,15 @@
         <v>0.00636942675159236</v>
       </c>
       <c r="I33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1751,12 +2126,15 @@
         <v>0.1</v>
       </c>
       <c r="I34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1780,12 +2158,15 @@
         <v>0.0689655172413793</v>
       </c>
       <c r="I35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1809,12 +2190,15 @@
         <v>0.0102040816326531</v>
       </c>
       <c r="I36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1838,12 +2222,15 @@
         <v>0.133333333333333</v>
       </c>
       <c r="I37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1867,12 +2254,15 @@
         <v>0.0344827586206897</v>
       </c>
       <c r="I38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1896,12 +2286,15 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1925,12 +2318,15 @@
         <v>0.0337078651685393</v>
       </c>
       <c r="I40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1954,12 +2350,15 @@
         <v>0.0337078651685393</v>
       </c>
       <c r="I41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1983,12 +2382,15 @@
         <v>0.0689655172413793</v>
       </c>
       <c r="I42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2012,12 +2414,15 @@
         <v>0.0740740740740741</v>
       </c>
       <c r="I43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2041,12 +2446,15 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2070,12 +2478,21 @@
         <v>0.0444444444444444</v>
       </c>
       <c r="I45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J45" t="s">
+        <v>138</v>
+      </c>
+      <c r="K45" t="s">
+        <v>139</v>
+      </c>
+      <c r="L45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2099,12 +2516,15 @@
         <v>0.06</v>
       </c>
       <c r="I46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>142</v>
+      </c>
+      <c r="J46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2128,12 +2548,15 @@
         <v>0.0952380952380952</v>
       </c>
       <c r="I47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2157,12 +2580,21 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J48" t="s">
+        <v>149</v>
+      </c>
+      <c r="K48" t="s">
+        <v>150</v>
+      </c>
+      <c r="L48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2186,12 +2618,15 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2215,12 +2650,15 @@
         <v>0.105263157894737</v>
       </c>
       <c r="I50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2244,12 +2682,15 @@
         <v>0.04</v>
       </c>
       <c r="I51" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2273,12 +2714,15 @@
         <v>0.0357142857142857</v>
       </c>
       <c r="I52" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2302,12 +2746,15 @@
         <v>0.0212765957446809</v>
       </c>
       <c r="I53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2331,12 +2778,15 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2360,12 +2810,15 @@
         <v>0.12</v>
       </c>
       <c r="I55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="J55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2389,12 +2842,15 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2418,12 +2874,15 @@
         <v>0.1875</v>
       </c>
       <c r="I57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>174</v>
+      </c>
+      <c r="J57" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2447,12 +2906,15 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2476,12 +2938,15 @@
         <v>0.03125</v>
       </c>
       <c r="I59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2505,12 +2970,15 @@
         <v>0.0357142857142857</v>
       </c>
       <c r="I60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2534,12 +3002,15 @@
         <v>0.0099009900990099</v>
       </c>
       <c r="I61" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J61" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2563,12 +3034,15 @@
         <v>0.027027027027027</v>
       </c>
       <c r="I62" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>185</v>
+      </c>
+      <c r="J62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2592,12 +3066,15 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2621,12 +3098,15 @@
         <v>0.15</v>
       </c>
       <c r="I64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="J64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2650,12 +3130,15 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J65" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2679,12 +3162,21 @@
         <v>0.130434782608696</v>
       </c>
       <c r="I66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J66" t="s">
+        <v>197</v>
+      </c>
+      <c r="K66" t="s">
+        <v>198</v>
+      </c>
+      <c r="L66" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2708,12 +3200,15 @@
         <v>0.0357142857142857</v>
       </c>
       <c r="I67" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="J67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2737,12 +3232,15 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2766,12 +3264,15 @@
         <v>0.117647058823529</v>
       </c>
       <c r="I69" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="J69" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2795,12 +3296,15 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="I70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>209</v>
+      </c>
+      <c r="J70" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2824,12 +3328,15 @@
         <v>0.0645161290322581</v>
       </c>
       <c r="I71" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J71" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2853,12 +3360,15 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>214</v>
+      </c>
+      <c r="J72" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2882,12 +3392,15 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2911,12 +3424,15 @@
         <v>0.03125</v>
       </c>
       <c r="I74" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J74" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2940,12 +3456,15 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J75" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2969,7 +3488,10 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="I76" t="s">
-        <v>10</v>
+        <v>224</v>
+      </c>
+      <c r="J76" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
